--- a/data/long_razon/P24_5-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_5-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 11,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 31,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 20,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,38; 104,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,07; -2,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -4,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 60,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,72; -0,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 16,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 181,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 42,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 25,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,59; 91,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 35,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 13,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,11; 104,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 29,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-43,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 22,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 277,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 74,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 49,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 152,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 48,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 15,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 135,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 35,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,98; -0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 72,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 17,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,48; 83,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 70,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 5,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_5-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_5-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1736983905874815</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.111931617688662</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1430687980133807</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2283095314513642</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2344052956773277</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.6639371709873518</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.2048113400771779</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.08791691506167625</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2075420650951356</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2855824652586392</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1782526646506783</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.03745099323176646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.420963547969424</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.369350628708688</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3565724835593592</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1386678522908209</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3866916262063921</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3197062764489949</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3470099264588024</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2824214129326209</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3562004086422592</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.05773795611469443</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.31136267934314</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1725507099989433</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.1023771450250974</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1970661138207656</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1361682401587354</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9507561570496702</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.03143650579192612</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.032528061201462</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.02958335010633581</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1602171443697537</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.05672133693496954</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5391312483237132</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.02976890093026352</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.318674691744249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2059086266681282</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9595325993738948</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.0390858081348073</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2466884823727576</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.02548796570438791</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4562294525614505</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1376160271639444</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1219654680239426</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1031030007990899</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.6525354993068536</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.0928273625043165</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.1826856882205158</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4522595712366405</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3088751615929949</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2142534705926837</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.461298732000703</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2531404887299283</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1567890919780746</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.07788954998859683</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3181572355241813</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2808767728912955</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.3076531765635876</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.07193144477162451</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3517107549234273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.1277344627445754</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.250476944094268</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4375024126041132</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06263174576215769</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2735830524810894</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9151345520038661</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.4094867620807335</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.1083739886302208</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1046976326406779</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.078551517756963</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.3366891178094096</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-0.01675562929486632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.5151871731006008</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6637999233862847</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1236063696487554</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3754867557828706</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.08346214753439911</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.7133169639848826</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.07375943578690994</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3295822690958764</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2835180519373606</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.69284528741687</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.09463612184119298</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.1215289032070837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.8008681141435705</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2090752295283661</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5278771816674291</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.7846790495802483</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4189572602243147</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.1372085229784618</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4166429368540543</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2584646666803983</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5522197010755294</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.1532591732390988</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3818968337566844</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.5063241711911849</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.07074686554610782</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.372489903891388</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7374080451514863</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.3557634412356562</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.4578695989936904</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.997404245810508</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4117833779656827</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.303483882776447</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.01855079789102154</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.543852207009137</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.3427230760570594</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.464114870402311</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2349969500370185</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3050748996929374</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.07176787620997212</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.07577354344475849</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1358113704134728</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.5866639531686537</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.06808251233065603</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.07116862118202447</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.179537798581558</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.4615161456954192</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.0696960494052952</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.07329324887214028</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3925807480038372</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.03705937393771278</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2354973360133222</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2810644855948978</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2616737114314697</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.3696486366695501</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1886919963850594</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2134064756231218</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2830388139088078</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2645745085479043</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1738713577476493</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2066064799027448</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.04754473534048317</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6901579751911461</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1237178317624399</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2475238461381422</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.02552121403544282</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.8592487684993164</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.06026774902746638</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.08566477115044557</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.05411935234580448</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6636500074730525</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.04927329312977129</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.07749707520035951</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
